--- a/2015136101_2015136094_이유정_이소진_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/2015136101_2015136094_이유정_이소진_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2015136101-2015136094\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,12 +185,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>납땜 해서 들어온다는 말이죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +244,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +264,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,15 +333,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,6 +360,30 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,15 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,23 +402,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -875,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -883,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -896,72 +931,72 @@
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="13">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -984,11 +1019,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="127.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="127.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3">
@@ -1000,16 +1035,19 @@
       <c r="E7" s="3">
         <v>33000</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="139.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="20"/>
+      <c r="H7" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="139.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="3">
@@ -1021,19 +1059,20 @@
       <c r="E8" s="3">
         <v>36300</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="19"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>3300</v>
       </c>
       <c r="D9" s="2">
@@ -1042,16 +1081,16 @@
       <c r="E9" s="3">
         <v>3300</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3">
@@ -1063,12 +1102,12 @@
       <c r="E10" s="3">
         <v>4000</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1084,14 +1123,14 @@
       <c r="E11" s="3">
         <v>15800</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="61.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="61.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3">
@@ -1104,9 +1143,9 @@
         <v>7500</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1118,9 +1157,9 @@
         <v>99900</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1129,7 +1168,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1138,7 +1177,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/2015136101_2015136094_이유정_이소진_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/2015136101_2015136094_이유정_이소진_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2015136101-2015136094\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이유정\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,15 +186,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>납땜 해서 들어온다는 말이죠?</t>
+    <t>네오픽셀 쉴드와
+구성품 핀헤더들 
+납땜 요청 해주세요!
+053-588-4080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오 스펙트럼 쉴드랑
+3번  핀헤더, 헤더핀 키트
+납땜 요청 해주세요!
+053-588-4080
+(평   일 09:00 ~ 17:30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +263,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -272,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -332,6 +352,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -344,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,32 +413,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -466,8 +504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7248525" y="1276350"/>
-          <a:ext cx="2428875" cy="1590675"/>
+          <a:off x="7197090" y="1333500"/>
+          <a:ext cx="2426970" cy="1590675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,7 +736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,7 +771,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -918,85 +956,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="33.625" customWidth="1"/>
-    <col min="7" max="7" width="32.125" customWidth="1"/>
+    <col min="2" max="3" width="17.09765625" customWidth="1"/>
+    <col min="6" max="6" width="33.59765625" customWidth="1"/>
+    <col min="7" max="7" width="32.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="15">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="127.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="127.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1038,12 +1076,13 @@
       <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="139.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1062,10 +1101,14 @@
       <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="13"/>
+      <c r="H8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1085,8 +1128,11 @@
         <v>19</v>
       </c>
       <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="22"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1107,7 +1153,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1128,7 +1174,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="61.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="12" t="s">
         <v>25</v>
@@ -1145,7 +1191,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1159,7 +1205,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1168,7 +1214,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1177,7 +1223,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1186,7 +1232,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1196,7 +1242,9 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:J9"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
